--- a/medicine/Enfance/Les_Survivants_(roman_de_Robert_Muchamore)/Les_Survivants_(roman_de_Robert_Muchamore).xlsx
+++ b/medicine/Enfance/Les_Survivants_(roman_de_Robert_Muchamore)/Les_Survivants_(roman_de_Robert_Muchamore).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Survivants est le 5e tome de la série pour la jeunesse CHERUB, écrit par Robert Muchamore.
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">James Adams est envoyé en mission dans une secte créée par le milliardaire Joel Regan afin d'arrêter Bungle (rencontré dans le tome 1), et d'autres hauts membres du groupe éco-terroriste appelé Sauvez la Terre. Il va devoir apprendre comment s'infiltrer dans une secte.
 À la fin du roman, il recrute Rathbone, fils de Joel Regan, et qui deviendra par la suite le petit ami de Lauren, elle reçoit aussi pour sa bravoure le T-shirt noir, et devient donc l'une des plus jeunes agents à avoir reçu cette distinction. 
